--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.41823</v>
+        <v>0.3757255</v>
       </c>
       <c r="H2">
-        <v>0.83646</v>
+        <v>0.7514510000000001</v>
       </c>
       <c r="I2">
-        <v>0.02275236317870147</v>
+        <v>0.02009782793170808</v>
       </c>
       <c r="J2">
-        <v>0.01562566754353302</v>
+        <v>0.01395944741802024</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.081504</v>
+        <v>11.4621665</v>
       </c>
       <c r="N2">
-        <v>50.163008</v>
+        <v>22.924333</v>
       </c>
       <c r="O2">
-        <v>0.6708018861614671</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P2">
-        <v>0.579958390249514</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q2">
-        <v>10.48983741792</v>
+        <v>4.30662823929575</v>
       </c>
       <c r="R2">
-        <v>41.95934967167999</v>
+        <v>17.226512957183</v>
       </c>
       <c r="S2">
-        <v>0.01526232813490366</v>
+        <v>0.01897457282366741</v>
       </c>
       <c r="T2">
-        <v>0.009062236995121487</v>
+        <v>0.01301098988701508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.41823</v>
+        <v>0.3757255</v>
       </c>
       <c r="H3">
-        <v>0.83646</v>
+        <v>0.7514510000000001</v>
       </c>
       <c r="I3">
-        <v>0.02275236317870147</v>
+        <v>0.02009782793170808</v>
       </c>
       <c r="J3">
-        <v>0.01562566754353302</v>
+        <v>0.01395944741802024</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +623,22 @@
         <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.008398811455623191</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P3">
-        <v>0.0108921007952561</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q3">
-        <v>0.13133857923</v>
+        <v>0.1179907069088334</v>
       </c>
       <c r="R3">
-        <v>0.78803147538</v>
+        <v>0.7079442414530001</v>
       </c>
       <c r="S3">
-        <v>0.0001910928085077772</v>
+        <v>0.0005198552408888128</v>
       </c>
       <c r="T3">
-        <v>0.0001701963458773233</v>
+        <v>0.0005347022574452469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.41823</v>
+        <v>0.3757255</v>
       </c>
       <c r="H4">
-        <v>0.83646</v>
+        <v>0.7514510000000001</v>
       </c>
       <c r="I4">
-        <v>0.02275236317870147</v>
+        <v>0.02009782793170808</v>
       </c>
       <c r="J4">
-        <v>0.01562566754353302</v>
+        <v>0.01395944741802024</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5953364999999999</v>
+        <v>0.364502</v>
       </c>
       <c r="N4">
-        <v>1.190673</v>
+        <v>0.729004</v>
       </c>
       <c r="O4">
-        <v>0.01592220494834625</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P4">
-        <v>0.01376593677144639</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q4">
-        <v>0.248987584395</v>
+        <v>0.136952696201</v>
       </c>
       <c r="R4">
-        <v>0.9959503375799998</v>
+        <v>0.547810784804</v>
       </c>
       <c r="S4">
-        <v>0.0003622677895904915</v>
+        <v>0.0006033998671518529</v>
       </c>
       <c r="T4">
-        <v>0.0002151019514159176</v>
+        <v>0.000413755273559913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.41823</v>
+        <v>16.41374433333333</v>
       </c>
       <c r="H5">
-        <v>0.83646</v>
+        <v>49.24123299999999</v>
       </c>
       <c r="I5">
-        <v>0.02275236317870147</v>
+        <v>0.8779830203869095</v>
       </c>
       <c r="J5">
-        <v>0.01562566754353302</v>
+        <v>0.9147374916820695</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.39945533333333</v>
+        <v>11.4621665</v>
       </c>
       <c r="N5">
-        <v>34.198366</v>
+        <v>22.924333</v>
       </c>
       <c r="O5">
-        <v>0.3048770974345635</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P5">
-        <v>0.3953835721837836</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q5">
-        <v>4.76759420406</v>
+        <v>188.1370704370981</v>
       </c>
       <c r="R5">
-        <v>28.60556522436</v>
+        <v>1128.822422622589</v>
       </c>
       <c r="S5">
-        <v>0.006936674445699544</v>
+        <v>0.8289130952301389</v>
       </c>
       <c r="T5">
-        <v>0.00617813225111829</v>
+        <v>0.8525867749023596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +791,40 @@
         <v>49.24123299999999</v>
       </c>
       <c r="I6">
-        <v>0.8929332477209986</v>
+        <v>0.8779830203869095</v>
       </c>
       <c r="J6">
-        <v>0.9198612441618808</v>
+        <v>0.9147374916820695</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>25.081504</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N6">
-        <v>50.163008</v>
+        <v>0.942103</v>
       </c>
       <c r="O6">
-        <v>0.6708018861614671</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P6">
-        <v>0.579958390249514</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q6">
-        <v>411.6813941514773</v>
+        <v>5.154479259222111</v>
       </c>
       <c r="R6">
-        <v>2470.088364908864</v>
+        <v>46.39031333299899</v>
       </c>
       <c r="S6">
-        <v>0.5989813067875304</v>
+        <v>0.02271011952686837</v>
       </c>
       <c r="T6">
-        <v>0.5334812464170395</v>
+        <v>0.03503807759186877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,72 +853,72 @@
         <v>49.24123299999999</v>
       </c>
       <c r="I7">
-        <v>0.8929332477209986</v>
+        <v>0.8779830203869095</v>
       </c>
       <c r="J7">
-        <v>0.9198612441618808</v>
+        <v>0.9147374916820695</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3140343333333334</v>
+        <v>0.364502</v>
       </c>
       <c r="N7">
-        <v>0.942103</v>
+        <v>0.729004</v>
       </c>
       <c r="O7">
-        <v>0.008398811455623191</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P7">
-        <v>0.0108921007952561</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q7">
-        <v>5.154479259222111</v>
+        <v>5.982842636988665</v>
       </c>
       <c r="R7">
-        <v>46.39031333299899</v>
+        <v>35.89705582193199</v>
       </c>
       <c r="S7">
-        <v>0.007499577990065944</v>
+        <v>0.02635980562990217</v>
       </c>
       <c r="T7">
-        <v>0.01001922138906088</v>
+        <v>0.02711263918784114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.41374433333333</v>
+        <v>1.877769</v>
       </c>
       <c r="H8">
-        <v>49.24123299999999</v>
+        <v>3.755538</v>
       </c>
       <c r="I8">
-        <v>0.8929332477209986</v>
+        <v>0.1004432178744736</v>
       </c>
       <c r="J8">
-        <v>0.9198612441618808</v>
+        <v>0.06976534097017222</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5953364999999999</v>
+        <v>11.4621665</v>
       </c>
       <c r="N8">
-        <v>1.190673</v>
+        <v>22.924333</v>
       </c>
       <c r="O8">
-        <v>0.01592220494834625</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P8">
-        <v>0.01376593677144639</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q8">
-        <v>9.771701103301497</v>
+        <v>21.5233009265385</v>
       </c>
       <c r="R8">
-        <v>58.63020661980899</v>
+        <v>86.093203706154</v>
       </c>
       <c r="S8">
-        <v>0.01421746617540617</v>
+        <v>0.09482950887423165</v>
       </c>
       <c r="T8">
-        <v>0.01266275172563646</v>
+        <v>0.06502522045788857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.41374433333333</v>
+        <v>1.877769</v>
       </c>
       <c r="H9">
-        <v>49.24123299999999</v>
+        <v>3.755538</v>
       </c>
       <c r="I9">
-        <v>0.8929332477209986</v>
+        <v>0.1004432178744736</v>
       </c>
       <c r="J9">
-        <v>0.9198612441618808</v>
+        <v>0.06976534097017222</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.39945533333333</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N9">
-        <v>34.198366</v>
+        <v>0.942103</v>
       </c>
       <c r="O9">
-        <v>0.3048770974345635</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P9">
-        <v>0.3953835721837836</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q9">
-        <v>187.1077453805864</v>
+        <v>0.5896839360689999</v>
       </c>
       <c r="R9">
-        <v>1683.969708425278</v>
+        <v>3.538103616414</v>
       </c>
       <c r="S9">
-        <v>0.2722348967679962</v>
+        <v>0.002598088380555871</v>
       </c>
       <c r="T9">
-        <v>0.3636980246301439</v>
+        <v>0.002672289539200037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09070299999999999</v>
+        <v>1.877769</v>
       </c>
       <c r="H10">
-        <v>0.272109</v>
+        <v>3.755538</v>
       </c>
       <c r="I10">
-        <v>0.004934384423398034</v>
+        <v>0.1004432178744736</v>
       </c>
       <c r="J10">
-        <v>0.005083189596159081</v>
+        <v>0.06976534097017222</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,42 +1051,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.081504</v>
+        <v>0.364502</v>
       </c>
       <c r="N10">
-        <v>50.163008</v>
+        <v>0.729004</v>
       </c>
       <c r="O10">
-        <v>0.6708018861614671</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P10">
-        <v>0.579958390249514</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q10">
-        <v>2.274967657312</v>
+        <v>0.6844505560379999</v>
       </c>
       <c r="R10">
-        <v>13.649805943872</v>
+        <v>2.737802224151999</v>
       </c>
       <c r="S10">
-        <v>0.003309994378261164</v>
+        <v>0.003015620619686094</v>
       </c>
       <c r="T10">
-        <v>0.002948038455521498</v>
+        <v>0.002067830973083605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,60 +1095,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.09070299999999999</v>
+        <v>0.02759233333333333</v>
       </c>
       <c r="H11">
-        <v>0.272109</v>
+        <v>0.082777</v>
       </c>
       <c r="I11">
-        <v>0.004934384423398034</v>
+        <v>0.001475933806908678</v>
       </c>
       <c r="J11">
-        <v>0.005083189596159081</v>
+        <v>0.001537719929737882</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3140343333333334</v>
+        <v>11.4621665</v>
       </c>
       <c r="N11">
-        <v>0.942103</v>
+        <v>22.924333</v>
       </c>
       <c r="O11">
-        <v>0.008398811455623191</v>
+        <v>0.9441106217120846</v>
       </c>
       <c r="P11">
-        <v>0.0108921007952561</v>
+        <v>0.9320562266826696</v>
       </c>
       <c r="Q11">
-        <v>0.02848385613633333</v>
+        <v>0.3162679187901667</v>
       </c>
       <c r="R11">
-        <v>0.256354705227</v>
+        <v>1.897607512741</v>
       </c>
       <c r="S11">
-        <v>4.144296442168404E-05</v>
+        <v>0.001393444784046436</v>
       </c>
       <c r="T11">
-        <v>5.536661344276185E-05</v>
+        <v>0.00143324143540623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,60 +1157,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09070299999999999</v>
+        <v>0.02759233333333333</v>
       </c>
       <c r="H12">
-        <v>0.272109</v>
+        <v>0.082777</v>
       </c>
       <c r="I12">
-        <v>0.004934384423398034</v>
+        <v>0.001475933806908678</v>
       </c>
       <c r="J12">
-        <v>0.005083189596159081</v>
+        <v>0.001537719929737882</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5953364999999999</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N12">
-        <v>1.190673</v>
+        <v>0.942103</v>
       </c>
       <c r="O12">
-        <v>0.01592220494834625</v>
+        <v>0.02586624000639611</v>
       </c>
       <c r="P12">
-        <v>0.01376593677144639</v>
+        <v>0.03830397016682768</v>
       </c>
       <c r="Q12">
-        <v>0.05399880655949999</v>
+        <v>0.008664940003444446</v>
       </c>
       <c r="R12">
-        <v>0.323992839357</v>
+        <v>0.077984460031</v>
       </c>
       <c r="S12">
-        <v>7.856628008327082E-05</v>
+        <v>3.817685808305376E-05</v>
       </c>
       <c r="T12">
-        <v>6.997486657800004E-05</v>
+        <v>5.89007783136162E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,542 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09070299999999999</v>
+        <v>0.02759233333333333</v>
       </c>
       <c r="H13">
-        <v>0.272109</v>
+        <v>0.082777</v>
       </c>
       <c r="I13">
-        <v>0.004934384423398034</v>
+        <v>0.001475933806908678</v>
       </c>
       <c r="J13">
-        <v>0.005083189596159081</v>
+        <v>0.001537719929737882</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.39945533333333</v>
+        <v>0.364502</v>
       </c>
       <c r="N13">
-        <v>34.198366</v>
+        <v>0.729004</v>
       </c>
       <c r="O13">
-        <v>0.3048770974345635</v>
+        <v>0.03002313828151931</v>
       </c>
       <c r="P13">
-        <v>0.3953835721837836</v>
+        <v>0.02963980315050269</v>
       </c>
       <c r="Q13">
-        <v>1.033964797099333</v>
+        <v>0.01005746068466667</v>
       </c>
       <c r="R13">
-        <v>9.305683173894</v>
+        <v>0.060344764108</v>
       </c>
       <c r="S13">
-        <v>0.001504380800631915</v>
+        <v>4.431216477918846E-05</v>
       </c>
       <c r="T13">
-        <v>0.002009809660616822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.1960975</v>
-      </c>
-      <c r="H14">
-        <v>2.392195</v>
-      </c>
-      <c r="I14">
-        <v>0.06506956630833964</v>
-      </c>
-      <c r="J14">
-        <v>0.04468790350919585</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>25.081504</v>
-      </c>
-      <c r="N14">
-        <v>50.163008</v>
-      </c>
-      <c r="O14">
-        <v>0.6708018861614671</v>
-      </c>
-      <c r="P14">
-        <v>0.579958390249514</v>
-      </c>
-      <c r="Q14">
-        <v>29.99992423064</v>
-      </c>
-      <c r="R14">
-        <v>119.99969692256</v>
-      </c>
-      <c r="S14">
-        <v>0.04364878781134288</v>
-      </c>
-      <c r="T14">
-        <v>0.02591712458281883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.1960975</v>
-      </c>
-      <c r="H15">
-        <v>2.392195</v>
-      </c>
-      <c r="I15">
-        <v>0.06506956630833964</v>
-      </c>
-      <c r="J15">
-        <v>0.04468790350919585</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.3140343333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.942103</v>
-      </c>
-      <c r="O15">
-        <v>0.008398811455623191</v>
-      </c>
-      <c r="P15">
-        <v>0.0108921007952561</v>
-      </c>
-      <c r="Q15">
-        <v>0.3756156810141667</v>
-      </c>
-      <c r="R15">
-        <v>2.253694086085</v>
-      </c>
-      <c r="S15">
-        <v>0.0005465070189229158</v>
-      </c>
-      <c r="T15">
-        <v>0.0004867451493508399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.1960975</v>
-      </c>
-      <c r="H16">
-        <v>2.392195</v>
-      </c>
-      <c r="I16">
-        <v>0.06506956630833964</v>
-      </c>
-      <c r="J16">
-        <v>0.04468790350919585</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5953364999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.190673</v>
-      </c>
-      <c r="O16">
-        <v>0.01592220494834625</v>
-      </c>
-      <c r="P16">
-        <v>0.01376593677144639</v>
-      </c>
-      <c r="Q16">
-        <v>0.7120804993087499</v>
-      </c>
-      <c r="R16">
-        <v>2.848321997235</v>
-      </c>
-      <c r="S16">
-        <v>0.00103605097066139</v>
-      </c>
-      <c r="T16">
-        <v>0.0006151708541560875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.1960975</v>
-      </c>
-      <c r="H17">
-        <v>2.392195</v>
-      </c>
-      <c r="I17">
-        <v>0.06506956630833964</v>
-      </c>
-      <c r="J17">
-        <v>0.04468790350919585</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>11.39945533333333</v>
-      </c>
-      <c r="N17">
-        <v>34.198366</v>
-      </c>
-      <c r="O17">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="P17">
-        <v>0.3953835721837836</v>
-      </c>
-      <c r="Q17">
-        <v>13.63486002556167</v>
-      </c>
-      <c r="R17">
-        <v>81.80916015337</v>
-      </c>
-      <c r="S17">
-        <v>0.01983822050741246</v>
-      </c>
-      <c r="T17">
-        <v>0.01766886292287009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.263052</v>
-      </c>
-      <c r="H18">
-        <v>0.789156</v>
-      </c>
-      <c r="I18">
-        <v>0.01431043836856223</v>
-      </c>
-      <c r="J18">
-        <v>0.01474199518923121</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>25.081504</v>
-      </c>
-      <c r="N18">
-        <v>50.163008</v>
-      </c>
-      <c r="O18">
-        <v>0.6708018861614671</v>
-      </c>
-      <c r="P18">
-        <v>0.579958390249514</v>
-      </c>
-      <c r="Q18">
-        <v>6.597739790208</v>
-      </c>
-      <c r="R18">
-        <v>39.586438741248</v>
-      </c>
-      <c r="S18">
-        <v>0.009599469049428971</v>
-      </c>
-      <c r="T18">
-        <v>0.008549743799012613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.263052</v>
-      </c>
-      <c r="H19">
-        <v>0.789156</v>
-      </c>
-      <c r="I19">
-        <v>0.01431043836856223</v>
-      </c>
-      <c r="J19">
-        <v>0.01474199518923121</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.3140343333333334</v>
-      </c>
-      <c r="N19">
-        <v>0.942103</v>
-      </c>
-      <c r="O19">
-        <v>0.008398811455623191</v>
-      </c>
-      <c r="P19">
-        <v>0.0108921007952561</v>
-      </c>
-      <c r="Q19">
-        <v>0.08260735945200001</v>
-      </c>
-      <c r="R19">
-        <v>0.743466235068</v>
-      </c>
-      <c r="S19">
-        <v>0.0001201906737048701</v>
-      </c>
-      <c r="T19">
-        <v>0.0001605712975242868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.263052</v>
-      </c>
-      <c r="H20">
-        <v>0.789156</v>
-      </c>
-      <c r="I20">
-        <v>0.01431043836856223</v>
-      </c>
-      <c r="J20">
-        <v>0.01474199518923121</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.5953364999999999</v>
-      </c>
-      <c r="N20">
-        <v>1.190673</v>
-      </c>
-      <c r="O20">
-        <v>0.01592220494834625</v>
-      </c>
-      <c r="P20">
-        <v>0.01376593677144639</v>
-      </c>
-      <c r="Q20">
-        <v>0.156604456998</v>
-      </c>
-      <c r="R20">
-        <v>0.9396267419879999</v>
-      </c>
-      <c r="S20">
-        <v>0.0002278537326049255</v>
-      </c>
-      <c r="T20">
-        <v>0.0002029373736599238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.263052</v>
-      </c>
-      <c r="H21">
-        <v>0.789156</v>
-      </c>
-      <c r="I21">
-        <v>0.01431043836856223</v>
-      </c>
-      <c r="J21">
-        <v>0.01474199518923121</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.39945533333333</v>
-      </c>
-      <c r="N21">
-        <v>34.198366</v>
-      </c>
-      <c r="O21">
-        <v>0.3048770974345635</v>
-      </c>
-      <c r="P21">
-        <v>0.3953835721837836</v>
-      </c>
-      <c r="Q21">
-        <v>2.998649524344</v>
-      </c>
-      <c r="R21">
-        <v>26.987845719096</v>
-      </c>
-      <c r="S21">
-        <v>0.004362924912823462</v>
-      </c>
-      <c r="T21">
-        <v>0.005828742719034389</v>
+        <v>4.557771601803566E-05</v>
       </c>
     </row>
   </sheetData>
